--- a/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
@@ -1027,6 +1027,9 @@
       <c r="C71" t="str">
         <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1088,7 +1091,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101010103020105615101551055304040301515157107141212105551061531015101510251515101041010151505555554335553550</v>
+        <v>0101010103020105615101551055304040301515157107141212105551061531015101510251515101041010151505555554335553558</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1031,9 +1031,89 @@
         <v>8</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F73" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1091,7 +1171,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101010103020105615101551055304040301515157107141212105551061531015101510251515101041010151505555554335553558</v>
+        <v>01010101030201056151015510553040403015151571071412121055510615310151015102515151010410101515055555543355535588683855350</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-22.xlsx
@@ -1110,6 +1110,9 @@
       <c r="C81" t="str">
         <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
       </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1171,7 +1174,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010101030201056151015510553040403015151571071412121055510615310151015102515151010410101515055555543355535588683855350</v>
+        <v>01010101030201056151015510553040403015151571071412121055510615310151015102515151010410101515055555543355535588683855355</v>
       </c>
     </row>
   </sheetData>
